--- a/biology/Botanique/Lycaste/Lycaste.xlsx
+++ b/biology/Botanique/Lycaste/Lycaste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lycaste est un genre de plantes pérennes de la famille des Orchidaceae.
 Les espèces se trouvent du Mexique, en Amérique du Nord, en Amérique centrale et jusqu'en Amérique du Sud.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (8 juin 2010)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (8 juin 2010) :
 Lycaste angelae Oakeley, Lycaste, Ida (2008)
 Lycaste aromatica (Graham) Lindl. (1843)
 Lycaste bradeorum Schltr. (1923)
@@ -558,7 +572,7 @@
 Lycaste viridescens (Oakeley) Oakeley (2007)
 Lycaste xanthocheila (Fowlie) Oakeley (2007)
 Lycaste xytriophora Linden &amp; Rchb.f. (1872)
-Selon ITIS      (8 juin 2010)[2] :
+Selon ITIS      (8 juin 2010) :
 Lycaste barringtoniae (Sm.) Lindl.</t>
         </is>
       </c>
